--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1691.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1691.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7524954389186798</v>
+        <v>0.5902912020683289</v>
       </c>
       <c r="B1">
-        <v>4.000587118429292</v>
+        <v>1.030855774879456</v>
       </c>
       <c r="C1">
-        <v>2.291400791948849</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.783805289948056</v>
+        <v>1.837823152542114</v>
       </c>
       <c r="E1">
-        <v>1.614335608298531</v>
+        <v>1.561772108078003</v>
       </c>
     </row>
   </sheetData>
